--- a/data/trans_bre/P1409-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P1409-Clase-trans_bre.xlsx
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.352973733464493</v>
+        <v>-1.561563394614694</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.488166423329415</v>
+        <v>-1.38116858966625</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.980652933315564</v>
+        <v>-1.137176178781554</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.7211628497556467</v>
+        <v>-0.7924366792587071</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.5301843113647909</v>
+        <v>-0.5414610719505606</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.2364808635015669</v>
+        <v>-0.2591885858596528</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.716102006193558</v>
+        <v>2.503069598077519</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.14232874985517</v>
+        <v>3.132309918774046</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.353049653115188</v>
+        <v>3.354491949297307</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>4.304202666927188</v>
+        <v>3.387806777553446</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>3.217253651153504</v>
+        <v>3.069640143194816</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.548246971745381</v>
+        <v>1.448718998873414</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>1.989638202944372</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2.189668819848361</v>
+        <v>2.189668819848363</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>1.647787402243161</v>
@@ -709,7 +709,7 @@
         <v>0.7780229064482042</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5220639034806681</v>
+        <v>0.5220639034806687</v>
       </c>
     </row>
     <row r="8">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.07546256020167161</v>
+        <v>0.2919340899905499</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.5885409442904975</v>
+        <v>-0.7227609052553026</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.9459756876687292</v>
+        <v>-0.7891853583754221</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.3520809951029772</v>
+        <v>-0.1666216827632827</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2406335789765095</v>
+        <v>-0.3024241759286811</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2018164595406977</v>
+        <v>-0.1655099446122169</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.347999970972128</v>
+        <v>5.472085414630703</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.58324211195862</v>
+        <v>4.631271899676801</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.725555284203029</v>
+        <v>4.881648728339086</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>7.439705810994929</v>
+        <v>8.208635788681413</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>3.096204993240746</v>
+        <v>3.204235811932376</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.600174564178788</v>
+        <v>1.788070249815553</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
         <v>1.10453030736598</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1.174027473942975</v>
+        <v>1.174027473942973</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0.5652859783347716</v>
@@ -791,7 +791,7 @@
         <v>0.636250077756447</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4153482466644631</v>
+        <v>0.4153482466644627</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.059339377164877</v>
+        <v>-1.130924486140235</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.282000034745681</v>
+        <v>-1.223583084474552</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.225898393089417</v>
+        <v>-1.418544664527461</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.5846335371559606</v>
+        <v>-0.6470246981725025</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.7092217017614559</v>
+        <v>-0.6770372901168948</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3850574697578693</v>
+        <v>-0.4001063695524414</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.51625898620464</v>
+        <v>3.890003752587538</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.10621278508933</v>
+        <v>5.300696603361203</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.974449969638735</v>
+        <v>4.112741765989591</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>3.418848994529736</v>
+        <v>3.270159734725404</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>4.555641991131355</v>
+        <v>5.387124273365427</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.590609849445814</v>
+        <v>2.491629306402057</v>
       </c>
     </row>
     <row r="13">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.8071316911395396</v>
+        <v>-0.6633102167062264</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.4120484730650797</v>
+        <v>-0.4913852474382095</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.106079462009241</v>
+        <v>-1.008224665522502</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3510812009241837</v>
+        <v>-0.3025436169948603</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1629931867689194</v>
+        <v>-0.2197714185029758</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2482555807740457</v>
+        <v>-0.2330891062930239</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.263267298659353</v>
+        <v>2.258442125211607</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.591298270491147</v>
+        <v>2.478328589661326</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.511758813120164</v>
+        <v>2.576270591088865</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.528881269374269</v>
+        <v>1.453311621457408</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.708461998799157</v>
+        <v>1.595085689632751</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8562141401699122</v>
+        <v>0.8946076853571111</v>
       </c>
     </row>
     <row r="16">
@@ -946,7 +946,7 @@
         <v>1.780329352556405</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-0.3487276040807105</v>
+        <v>-0.3487276040807119</v>
       </c>
       <c r="F16" s="6" t="n">
         <v>0.3761474440429362</v>
@@ -955,7 +955,7 @@
         <v>0.5098320897839943</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>-0.06504372393153321</v>
+        <v>-0.06504372393153347</v>
       </c>
     </row>
     <row r="17">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.146676566292082</v>
+        <v>-0.9628586915866791</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.46130644047334</v>
+        <v>-0.7302197713157785</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.103265482964356</v>
+        <v>-3.151597192088054</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.3654541801693264</v>
+        <v>-0.3564710304080695</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.1282763115040244</v>
+        <v>-0.1652792940108253</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.4242907241992419</v>
+        <v>-0.4298237664260186</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.507626057362167</v>
+        <v>2.592878438465842</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.933317614381987</v>
+        <v>3.883618478425697</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.004503638986464</v>
+        <v>1.96083959413808</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1.823136104558064</v>
+        <v>2.011501080769672</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.459516601828296</v>
+        <v>1.483870589614596</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5850601329417777</v>
+        <v>0.5265885815450621</v>
       </c>
     </row>
     <row r="19">
@@ -1048,22 +1048,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-2.456364257990601</v>
+        <v>-2.344634590394363</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-3.609433024663862</v>
+        <v>-4.088843535987499</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-6.513383330139604</v>
+        <v>-7.114144654440281</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.5570900552508156</v>
+        <v>-0.5634867377869742</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5252428462524904</v>
+        <v>-0.5567407130794562</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.6253399967754132</v>
+        <v>-0.6777798313872092</v>
       </c>
     </row>
     <row r="21">
@@ -1074,22 +1074,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>1.582384461800708</v>
+        <v>1.730661136863449</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>1.799570735889314</v>
+        <v>1.710792958596963</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>4.058279969320946</v>
+        <v>3.974969834361828</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.448586749445681</v>
+        <v>1.794160516737066</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.6801127370227963</v>
+        <v>0.6594871558723029</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>19.3613740612453</v>
+        <v>18.52437538018035</v>
       </c>
     </row>
     <row r="22">
@@ -1110,7 +1110,7 @@
         <v>1.368176241703407</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.9108803214046668</v>
+        <v>0.9108803214046675</v>
       </c>
       <c r="F22" s="6" t="n">
         <v>0.4188326128608743</v>
@@ -1119,7 +1119,7 @@
         <v>0.5374811033212631</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2356199906982011</v>
+        <v>0.2356199906982014</v>
       </c>
     </row>
     <row r="23">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.008016898895531865</v>
+        <v>0.1306596016472548</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.4817385014653183</v>
+        <v>0.5426091442598145</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.09647182113991853</v>
+        <v>-0.07452045450781167</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>-0.005883745679252746</v>
+        <v>0.03813787405654994</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.1595714942563572</v>
+        <v>0.1823242624250431</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.02190098607574463</v>
+        <v>-0.02292179740129921</v>
       </c>
     </row>
     <row r="24">
@@ -1156,22 +1156,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.527278421908044</v>
+        <v>1.637648501627832</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.200991020746098</v>
+        <v>2.267070806537918</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.934856746270977</v>
+        <v>1.813744057520366</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>0.9337606581213077</v>
+        <v>1.051899518501347</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.060961789734934</v>
+        <v>1.039510659323582</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5950477582016674</v>
+        <v>0.5504213856329855</v>
       </c>
     </row>
     <row r="25">
